--- a/Vorg/Vult Vorg BOM.xlsx
+++ b/Vorg/Vult Vorg BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>Vult Vorg</t>
   </si>
@@ -178,7 +178,7 @@
     <t>603-MFR-25FTE52-100K</t>
   </si>
   <si>
-    <t>R1,R4,R11,R12,R13,R14,R15,R16,R18,R19,R22,R23,R26,R28</t>
+    <t>R1,R4,R7,R11,R12,R13,R14,R15,R16,R18,R19,R22,R23,R26,R28</t>
   </si>
   <si>
     <t>10k</t>
@@ -200,18 +200,6 @@
   </si>
   <si>
     <t>603-MFR-25FTE52-1K8</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>22k</t>
-  </si>
-  <si>
-    <t>MFR-25FTE52-22K</t>
-  </si>
-  <si>
-    <t>603-MFR-25FTE52-22K</t>
   </si>
   <si>
     <t>R10</t>
@@ -1769,7 +1757,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G38"/>
+  <dimension ref="A2:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2074,7 +2062,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s" s="9">
         <v>55</v>
@@ -2137,7 +2125,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s" s="9">
         <v>67</v>
@@ -2158,34 +2146,34 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="C19" t="s" s="10">
+      <c r="C19" s="13">
+        <v>220</v>
+      </c>
+      <c r="D19" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s" s="10">
         <v>72</v>
       </c>
-      <c r="D19" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s" s="10">
+      <c r="F19" t="s" s="10">
         <v>73</v>
-      </c>
-      <c r="F19" t="s" s="10">
-        <v>74</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s" s="9">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s" s="10">
         <v>75</v>
-      </c>
-      <c r="C20" s="13">
-        <v>220</v>
       </c>
       <c r="D20" t="s" s="10">
         <v>10</v>
@@ -2254,10 +2242,10 @@
         <v>10</v>
       </c>
       <c r="E23" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="F23" t="s" s="10">
         <v>88</v>
-      </c>
-      <c r="F23" t="s" s="10">
-        <v>89</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -2266,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s" s="10">
         <v>90</v>
-      </c>
-      <c r="C24" t="s" s="10">
-        <v>91</v>
       </c>
       <c r="D24" t="s" s="10">
         <v>10</v>
@@ -2289,17 +2277,15 @@
       <c r="B25" t="s" s="9">
         <v>93</v>
       </c>
-      <c r="C25" t="s" s="10">
+      <c r="C25" s="11"/>
+      <c r="D25" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s" s="10">
         <v>94</v>
       </c>
-      <c r="D25" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s" s="10">
+      <c r="F25" t="s" s="10">
         <v>95</v>
-      </c>
-      <c r="F25" t="s" s="10">
-        <v>96</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -2308,36 +2294,36 @@
         <v>1</v>
       </c>
       <c r="B26" t="s" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" t="s" s="10">
         <v>10</v>
       </c>
       <c r="E26" t="s" s="10">
+        <v>97</v>
+      </c>
+      <c r="F26" t="s" s="10">
         <v>98</v>
-      </c>
-      <c r="F26" t="s" s="10">
-        <v>99</v>
       </c>
       <c r="G26" s="11"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" t="s" s="10">
         <v>10</v>
       </c>
       <c r="E27" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s" s="10">
         <v>101</v>
-      </c>
-      <c r="F27" t="s" s="10">
-        <v>102</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -2346,17 +2332,19 @@
         <v>2</v>
       </c>
       <c r="B28" t="s" s="9">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s" s="10">
         <v>103</v>
       </c>
-      <c r="C28" s="11"/>
       <c r="D28" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="E28" t="s" s="10">
+      <c r="E28" s="13">
+        <v>61301011821</v>
+      </c>
+      <c r="F28" t="s" s="10">
         <v>104</v>
-      </c>
-      <c r="F28" t="s" s="10">
-        <v>105</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -2365,38 +2353,36 @@
         <v>2</v>
       </c>
       <c r="B29" t="s" s="9">
+        <v>105</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s" s="10">
         <v>106</v>
       </c>
-      <c r="C29" t="s" s="10">
+      <c r="F29" t="s" s="10">
         <v>107</v>
-      </c>
-      <c r="D29" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E29" s="13">
-        <v>61301011821</v>
-      </c>
-      <c r="F29" t="s" s="10">
-        <v>108</v>
       </c>
       <c r="G29" s="11"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" t="s" s="10">
         <v>10</v>
       </c>
       <c r="E30" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s" s="10">
         <v>110</v>
-      </c>
-      <c r="F30" t="s" s="10">
-        <v>111</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -2405,17 +2391,17 @@
         <v>1</v>
       </c>
       <c r="B31" t="s" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" t="s" s="10">
         <v>10</v>
       </c>
       <c r="E31" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="F31" t="s" s="10">
         <v>113</v>
-      </c>
-      <c r="F31" t="s" s="10">
-        <v>114</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -2424,74 +2410,76 @@
         <v>1</v>
       </c>
       <c r="B32" t="s" s="9">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s" s="10">
         <v>115</v>
       </c>
-      <c r="C32" s="11"/>
       <c r="D32" t="s" s="10">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s" s="10">
-        <v>117</v>
-      </c>
-      <c r="G32" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="G32" t="s" s="10">
+        <v>119</v>
+      </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s" s="9">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s" s="10">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s" s="10">
         <v>120</v>
       </c>
-      <c r="E33" t="s" s="10">
+      <c r="F33" t="s" s="10">
         <v>121</v>
       </c>
-      <c r="F33" t="s" s="10">
-        <v>122</v>
-      </c>
-      <c r="G33" t="s" s="10">
-        <v>123</v>
-      </c>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s" s="9">
-        <v>118</v>
-      </c>
-      <c r="C34" t="s" s="10">
-        <v>119</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C34" s="11"/>
       <c r="D34" t="s" s="10">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s" s="10">
+        <v>123</v>
+      </c>
+      <c r="F34" t="s" s="10">
         <v>124</v>
-      </c>
-      <c r="F34" t="s" s="10">
-        <v>125</v>
       </c>
       <c r="G34" s="11"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s" s="9">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s" s="10">
         <v>126</v>
       </c>
-      <c r="C35" s="11"/>
       <c r="D35" t="s" s="10">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s" s="10">
         <v>127</v>
@@ -2502,56 +2490,35 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="8">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s" s="9">
-        <v>129</v>
-      </c>
-      <c r="C36" t="s" s="10">
-        <v>130</v>
-      </c>
-      <c r="D36" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="E36" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="F36" t="s" s="10">
-        <v>132</v>
-      </c>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
+      <c r="B37" t="s" s="9">
+        <v>129</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" t="s" s="9">
-        <v>133</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F33" r:id="rId1" location="" tooltip="" display="https://www.thonk.co.uk/shop/alpha-9mm-pots-vertical-t18/"/>
-    <hyperlink ref="F34" r:id="rId2" location="" tooltip="" display="https://www.thonk.co.uk/shop/short-trimmer-pots/"/>
-    <hyperlink ref="F35" r:id="rId3" location="" tooltip="" display="https://www.thonk.co.uk/shop/synth-pointer-knobs/"/>
-    <hyperlink ref="F36" r:id="rId4" location="" tooltip="" display="https://www.thonk.co.uk/shop/thonkiconn/"/>
-    <hyperlink ref="B38" r:id="rId5" location="" tooltip="" display="https://www.mouser.bg/ProjectManager/ProjectDetail.aspx?AccessID=9c88ece8de"/>
+    <hyperlink ref="F32" r:id="rId1" location="" tooltip="" display="https://www.thonk.co.uk/shop/alpha-9mm-pots-vertical-t18/"/>
+    <hyperlink ref="F33" r:id="rId2" location="" tooltip="" display="https://www.thonk.co.uk/shop/short-trimmer-pots/"/>
+    <hyperlink ref="F34" r:id="rId3" location="" tooltip="" display="https://www.thonk.co.uk/shop/synth-pointer-knobs/"/>
+    <hyperlink ref="F35" r:id="rId4" location="" tooltip="" display="https://www.thonk.co.uk/shop/thonkiconn/"/>
+    <hyperlink ref="B37" r:id="rId5" location="" tooltip="" display="https://www.mouser.bg/ProjectManager/ProjectDetail.aspx?AccessID=9c88ece8de"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
